--- a/medicine/Enfance/Paul_Shipton/Paul_Shipton.xlsx
+++ b/medicine/Enfance/Paul_Shipton/Paul_Shipton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Shipton, né le 15 juin 1963 à Manchester, est un écrivain britannique spécialisé dans la littérature d'enfance et de jeunesse et les novélisations.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Shipton a fait ses études à l'Emmanuel College de Cambridge et à l'Université de Manchester où il obtient des maîtrises en études classiques et en philosophie.
 Il voulait être astronaute, mais y renonce et devient professeur d'anglais à Istanbul, puis, à son retour en Angleterre, professeur de langues étrangère, avant d'être éditeur.
@@ -548,15 +562,99 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans jeunesse
-Série Bug Muldoon
-Bug Muldoon and the Garden of Fear (1995) Publié en français sous le titre Tirez pas sur le scarabée !, traduit par Thomas Bauduret, Paris, Hachette Jeunesse, Verte Aventure. Policier no 806, 1996  (ISBN 2-01-209581-X) ; réédition, Paris, Le Livre de poche. Jeunesse, no 912, 2002
-Bug Muldoon and the Killer in the Rain (1998) Publié en français sous le titre Un privé chez les insectes, traduit par Marianne Costa, Paris, Hachette Jeunesse, V vertige. Policier no 838, 2000  (ISBN 2-01-200525-X) ; réédition, Paris, Le Livre de poche Jeunesse, no 982, 2002
-Série Pig
-The Pig Scrolls (2002)
-The Pig Who Saved the World (2005)
-Autres romans
-Zargon Zoo (1991)
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Bug Muldoon</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bug Muldoon and the Garden of Fear (1995) Publié en français sous le titre Tirez pas sur le scarabée !, traduit par Thomas Bauduret, Paris, Hachette Jeunesse, Verte Aventure. Policier no 806, 1996  (ISBN 2-01-209581-X) ; réédition, Paris, Le Livre de poche. Jeunesse, no 912, 2002
+Bug Muldoon and the Killer in the Rain (1998) Publié en français sous le titre Un privé chez les insectes, traduit par Marianne Costa, Paris, Hachette Jeunesse, V vertige. Policier no 838, 2000  (ISBN 2-01-200525-X) ; réédition, Paris, Le Livre de poche Jeunesse, no 982, 2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Paul_Shipton</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Shipton</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Pig</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The Pig Scrolls (2002)
+The Pig Who Saved the World (2005)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Paul_Shipton</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Shipton</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Zargon Zoo (1991)
 The House of the Moors (1994)
 Pet Squad (1995)
 The Mighty Skink (1996)
@@ -606,14 +704,86 @@
 Carnival Time (2013)
 Back to the Stone Age (2013)
 The Cowboy Next Door (2014)
-The Night of the Ticklers (2014)
-Romans jeunesse signés Paul Cooper
-Pigs in Planes: The Chicken Egg-splosion (2010)
+The Night of the Ticklers (2014)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Paul_Shipton</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Shipton</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Romans jeunesse signés Paul Cooper</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pigs in Planes: The Chicken Egg-splosion (2010)
 Pigs in Planes: The Shark Bites Back (2010)
 Pigs in Planes: The Big Baad Sheep (2010)
-Pigs in Planes: The Mega Monkey Mystery (2010)
-Autres publications signés Paul Shipton
-Science with Weather (1993)
+Pigs in Planes: The Mega Monkey Mystery (2010)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Paul_Shipton</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Shipton</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres publications signés Paul Shipton</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Science with Weather (1993)
 Bones! (1998)
 Ghost in the Guitar (1999)
 Vampire Killer (2000)
